--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho_2024/NhapKho/Thang07/NKSX_15TB_4G_UGR_010724.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho_2024/NhapKho/Thang07/NKSX_15TB_4G_UGR_010724.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BH VNET\VNET NEW\VNET\2. Báo cáo-Bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\XuatNhapKho_2024\NhapKho\Thang07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C53082-DFA6-45FA-8DCA-2B29F43B3DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B245EA-CDE2-416A-90FF-336C2EEDEFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,9 +61,6 @@
     <t>Lý do nhập kho</t>
   </si>
   <si>
-    <t>Nguyễn Thị Hoa</t>
-  </si>
-  <si>
     <t>Số Lượng</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>Mã thiết bị</t>
   </si>
   <si>
-    <t>Số: PNK : 01</t>
-  </si>
-  <si>
     <t>Kế Toán Kho</t>
   </si>
   <si>
@@ -113,6 +107,12 @@
   </si>
   <si>
     <t>Ngày 01 Tháng 07 Năm 2024</t>
+  </si>
+  <si>
+    <t>Đặng Ngọc Mai</t>
+  </si>
+  <si>
+    <t>Số: PNK : 02</t>
   </si>
 </sst>
 </file>
@@ -381,30 +381,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -431,6 +407,30 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -852,7 +852,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -874,61 +874,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="24" t="s">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="32" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="32"/>
+      <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="32" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="32"/>
+      <c r="M2" s="24"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="32" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="32"/>
+      <c r="M3" s="24"/>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -938,7 +938,7 @@
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -946,19 +946,19 @@
       <c r="E5" s="6"/>
       <c r="F5" s="5"/>
       <c r="G5" s="4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -978,29 +978,29 @@
       <c r="A8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="B8" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31" t="s">
+      <c r="H8" s="23"/>
+      <c r="I8" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31" t="s">
+      <c r="J8" s="23"/>
+      <c r="K8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="31"/>
+      <c r="L8" s="23"/>
       <c r="M8" s="12" t="s">
         <v>2</v>
       </c>
@@ -1009,27 +1009,27 @@
       <c r="A9" s="15">
         <v>1</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F9" s="15">
         <v>15</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="17"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="32"/>
       <c r="M9" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1048,50 +1048,50 @@
       <c r="M10" s="14"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="18"/>
+      <c r="A11" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="26"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18" t="s">
+      <c r="I11" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="18"/>
+      <c r="M11" s="26"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="19"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19" t="s">
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="19"/>
+      <c r="M12" s="30"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
@@ -1154,27 +1154,27 @@
       <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="20"/>
+      <c r="A17" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="25"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="M17" s="20"/>
+      <c r="I17" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="25"/>
     </row>
     <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1187,15 +1187,6 @@
     <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="E1:K3"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="F17:G17"/>
@@ -1212,6 +1203,15 @@
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="F12:G12"/>
+    <mergeCell ref="E1:K3"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="1.2" bottom="1.2" header="0" footer="0"/>
